--- a/myapp/files/9_MethodComparePercent/Scenario 350.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 350.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1458</v>
+        <v>6854</v>
       </c>
       <c r="F2" t="n">
-        <v>1.96891331649809</v>
+        <v>1.01985700575102</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.92307692307692</v>
+        <v>0.664451827242525</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>621</v>
+        <v>12798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.838611227397334</v>
+        <v>1.90430842713766</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.66112956810631</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14097</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.09759617888417</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.66112956810631</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14777</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.19877837379381</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.66112956810631</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>507</v>
+        <v>14162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.684663272609418</v>
+        <v>2.10726800633877</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.92307692307692</v>
+        <v>1.66112956810631</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6261</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.931620179895991</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.664451827242525</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3717</v>
+        <v>21091</v>
       </c>
       <c r="F8" t="n">
-        <v>5.0195135784797</v>
+        <v>3.13828481299894</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,16 +821,16 @@
         <v>5.33333333333333</v>
       </c>
       <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.32225913621262</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.84615384615385</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3717</v>
+        <v>26759</v>
       </c>
       <c r="F9" t="n">
-        <v>5.0195135784797</v>
+        <v>3.9816681670399</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>3.84615384615385</v>
+        <v>4.31893687707641</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4135</v>
+        <v>33294</v>
       </c>
       <c r="F10" t="n">
-        <v>5.58398941270206</v>
+        <v>4.95405881959066</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>5.76923076923077</v>
+        <v>5.64784053156146</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>4451</v>
+        <v>31124</v>
       </c>
       <c r="F11" t="n">
-        <v>6.01072234000891</v>
+        <v>4.63116857995253</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>5.76923076923077</v>
+        <v>3.65448504983389</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9474</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.40970605084405</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.32890365448505</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2270</v>
+        <v>34050</v>
       </c>
       <c r="F13" t="n">
-        <v>3.06545488919798</v>
+        <v>5.06654961275491</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>5.76923076923077</v>
+        <v>5.3156146179402</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>13820</v>
+        <v>81091</v>
       </c>
       <c r="F14" t="n">
-        <v>18.6628134663948</v>
+        <v>12.0661255403204</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,10 +1049,10 @@
         <v>14.6666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>7.69230769230769</v>
+        <v>7.64119601328904</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5215</v>
+        <v>68431</v>
       </c>
       <c r="F15" t="n">
-        <v>7.04244372121916</v>
+        <v>10.1823511468555</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -1087,10 +1087,10 @@
         <v>14.6666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>7.69230769230769</v>
+        <v>9.96677740863787</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>2016</v>
+        <v>36561</v>
       </c>
       <c r="F16" t="n">
-        <v>2.72244804256526</v>
+        <v>5.44017974719331</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>1.92307692307692</v>
+        <v>4.31893687707641</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.018905889184481</v>
+        <v>2.31811384484901</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.92307692307692</v>
+        <v>1.66112956810631</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>6864</v>
+        <v>41123</v>
       </c>
       <c r="F18" t="n">
-        <v>9.26928738301981</v>
+        <v>6.11899323716065</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>9.61538461538461</v>
+        <v>6.64451827242525</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>8835</v>
+        <v>63709</v>
       </c>
       <c r="F19" t="n">
-        <v>11.9309664960635</v>
+        <v>9.47973008161534</v>
       </c>
       <c r="G19" t="n">
         <v>23</v>
@@ -1239,10 +1239,10 @@
         <v>30.6666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>13.4615384615385</v>
+        <v>9.96677740863787</v>
       </c>
       <c r="K19" t="n">
         <v>11</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>11298</v>
+        <v>48908</v>
       </c>
       <c r="F20" t="n">
-        <v>15.2570525718761</v>
+        <v>7.2773805715306</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1277,16 +1277,16 @@
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>13.4615384615385</v>
+        <v>9.63455149501661</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9.33333333333333</v>
+        <v>10.6666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2533</v>
+        <v>34563</v>
       </c>
       <c r="F21" t="n">
-        <v>3.42061552173502</v>
+        <v>5.14288265097351</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,16 +1315,16 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.98338870431894</v>
+      </c>
+      <c r="K21" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.76923076923077</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.41886452745683</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.664451827242525</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>12620</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.87782249964661</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.32558139534884</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1728</v>
+        <v>20579</v>
       </c>
       <c r="F24" t="n">
-        <v>2.33352689362736</v>
+        <v>3.06210057212579</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92307692307692</v>
+        <v>4.31893687707641</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>744</v>
+        <v>10544</v>
       </c>
       <c r="F25" t="n">
-        <v>1.00471296808956</v>
+        <v>1.56891921048129</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>3.84615384615385</v>
+        <v>3.65448504983389</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>108</v>
+        <v>10791</v>
       </c>
       <c r="F26" t="n">
-        <v>0.14584543085171</v>
+        <v>1.60567215480876</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.92307692307692</v>
+        <v>2.6578073089701</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
